--- a/Memoria.xlsx
+++ b/Memoria.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="417">
   <si>
     <t>Tamaño Nombre</t>
   </si>
@@ -849,34 +849,7 @@
     <t>P49</t>
   </si>
   <si>
-    <t>P </t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>C </t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>N </t>
-  </si>
-  <si>
-    <t>T </t>
+    <t>NUMERO DE COPIAS</t>
   </si>
   <si>
     <t>Seriales Fisicos</t>
@@ -1620,22 +1593,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG69"/>
+  <dimension ref="A1:AG68"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J70" activeCellId="0" sqref="J70"/>
+      <selection pane="topLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.12755102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.0714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="4.99489795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="3.78061224489796"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="73" min="6" style="1" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="74" min="74" style="2" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="75" style="2" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="73" min="6" style="1" width="3.78061224489796"/>
+    <col collapsed="false" hidden="false" max="74" min="74" style="2" width="3.78061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="75" style="2" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5168,28 +5141,31 @@
       <c r="A64" s="11" t="n">
         <v>1130</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G64" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H64" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="I64" s="0"/>
+      <c r="J64" s="0"/>
+      <c r="K64" s="0"/>
+      <c r="L64" s="12" t="s">
         <v>265</v>
       </c>
     </row>
@@ -5197,13 +5173,21 @@
       <c r="A65" s="11" t="n">
         <v>1141</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="D65" s="0"/>
+      <c r="E65" s="0"/>
+      <c r="F65" s="0"/>
+      <c r="G65" s="0"/>
+      <c r="H65" s="0"/>
+      <c r="I65" s="0"/>
+      <c r="J65" s="0"/>
+      <c r="K65" s="0"/>
+      <c r="L65" s="12" t="s">
         <v>268</v>
       </c>
     </row>
@@ -5211,13 +5195,21 @@
       <c r="A66" s="11" t="n">
         <v>1152</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="L66" s="1" t="s">
+      <c r="D66" s="0"/>
+      <c r="E66" s="0"/>
+      <c r="F66" s="0"/>
+      <c r="G66" s="0"/>
+      <c r="H66" s="0"/>
+      <c r="I66" s="0"/>
+      <c r="J66" s="0"/>
+      <c r="K66" s="0"/>
+      <c r="L66" s="12" t="s">
         <v>271</v>
       </c>
     </row>
@@ -5225,67 +5217,42 @@
       <c r="A67" s="11" t="n">
         <v>1163</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="L67" s="1" t="s">
+      <c r="D67" s="0"/>
+      <c r="E67" s="0"/>
+      <c r="F67" s="0"/>
+      <c r="G67" s="0"/>
+      <c r="H67" s="0"/>
+      <c r="I67" s="0"/>
+      <c r="J67" s="0"/>
+      <c r="K67" s="0"/>
+      <c r="L67" s="12" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="1" t="s">
+      <c r="A68" s="11" t="n">
+        <v>1165</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>277</v>
-      </c>
+      <c r="C68" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="0"/>
+      <c r="K68" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5311,33 +5278,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5345,10 +5312,10 @@
         <v>77011132700.13</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D2" s="18" t="n">
         <v>18925346</v>
@@ -5361,10 +5328,10 @@
         <v>77011132700.23</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D3" s="18" t="n">
         <v>18925346</v>
@@ -5377,17 +5344,17 @@
         <v>77011132700.33</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D4" s="18" t="n">
         <v>18925346</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="19" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5395,10 +5362,10 @@
         <v>77011132700.43</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D5" s="18" t="n">
         <v>18925346</v>
@@ -5411,10 +5378,10 @@
         <v>77011132700.53</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D6" s="18" t="n">
         <v>18925346</v>
@@ -5427,10 +5394,10 @@
         <v>77011132700.63</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D7" s="18" t="n">
         <v>18925110</v>
@@ -5443,10 +5410,10 @@
         <v>77011132700.73</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D8" s="18" t="n">
         <v>18925110</v>
@@ -5459,10 +5426,10 @@
         <v>77011132700.93</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D9" s="18" t="n">
         <v>18925210</v>
@@ -5475,10 +5442,10 @@
         <v>77011132700.83</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D10" s="18" t="n">
         <v>18925110</v>
@@ -5491,10 +5458,10 @@
         <v>77011132701.03</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D11" s="18" t="n">
         <v>18925110</v>
@@ -5507,10 +5474,10 @@
         <v>77011132800.13</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D12" s="18" t="n">
         <v>18925325</v>
@@ -5523,10 +5490,10 @@
         <v>77011132701.34</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D13" s="18" t="n">
         <v>18928694</v>
@@ -5539,10 +5506,10 @@
         <v>77011132701.44</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D14" s="18" t="n">
         <v>18928695</v>
@@ -5555,10 +5522,10 @@
         <v>77011132701.14</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D15" s="18" t="n">
         <v>18928696</v>
@@ -5571,10 +5538,10 @@
         <v>77011132701.24</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D16" s="18" t="n">
         <v>18928697</v>
@@ -5587,10 +5554,10 @@
         <v>77011132701.34</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D17" s="18" t="n">
         <v>18928698</v>
@@ -5603,10 +5570,10 @@
         <v>77011132701.74</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D18" s="18" t="n">
         <v>18928699</v>
@@ -5619,10 +5586,10 @@
         <v>77011132701.64</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D19" s="21" t="n">
         <v>18928700</v>
@@ -5635,10 +5602,10 @@
         <v>77011132701.54</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D20" s="21" t="n">
         <v>18928701</v>
@@ -5651,10 +5618,10 @@
         <v>77011132701.94</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D21" s="21" t="n">
         <v>18928702</v>
@@ -5667,10 +5634,10 @@
         <v>77011132701.84</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D22" s="21" t="n">
         <v>18928703</v>
@@ -5683,13 +5650,13 @@
         <v>77011132900.53</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="19" t="n">
@@ -5701,13 +5668,13 @@
         <v>77011132900.43</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="19" t="n">
@@ -5719,13 +5686,13 @@
         <v>77011132900.23</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="19" t="n">
@@ -5737,13 +5704,13 @@
         <v>77011132900.73</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="19" t="n">
@@ -5755,10 +5722,10 @@
         <v>77011132702.14</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D27" s="18" t="n">
         <v>18928703</v>
@@ -5771,10 +5738,10 @@
         <v>77011132702.34</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D28" s="18" t="n">
         <v>18928804</v>
@@ -5787,10 +5754,10 @@
         <v>77011132702.24</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D29" s="18" t="n">
         <v>18928815</v>
@@ -5803,10 +5770,10 @@
         <v>77011132702.04</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D30" s="18" t="n">
         <v>18928826</v>
@@ -5819,10 +5786,10 @@
         <v>77011132702.44</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D31" s="18" t="n">
         <v>18928927</v>
@@ -5835,10 +5802,10 @@
         <v>77011132900.53</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D32" s="18" t="n">
         <v>18927928</v>
@@ -5851,10 +5818,10 @@
         <v>77011132900.33</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D33" s="18" t="n">
         <v>18927929</v>
@@ -5867,10 +5834,10 @@
         <v>77011132900.63</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D34" s="18" t="n">
         <v>18927930</v>
@@ -5883,10 +5850,10 @@
         <v>77011132800.13</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D35" s="18" t="n">
         <v>18927931</v>
@@ -5899,10 +5866,10 @@
         <v>77012132700.12</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D36" s="18" t="n">
         <v>18927932</v>
@@ -5915,10 +5882,10 @@
         <v>77012132700.22</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D37" s="18" t="n">
         <v>18927933</v>
@@ -5931,10 +5898,10 @@
         <v>77012132700.32</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D38" s="18" t="n">
         <v>18927934</v>
@@ -5947,10 +5914,10 @@
         <v>77012132700.42</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D39" s="18" t="n">
         <v>18927935</v>
@@ -5963,10 +5930,10 @@
         <v>77012132700.11</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D40" s="18" t="n">
         <v>18927936</v>
@@ -5979,10 +5946,10 @@
         <v>77012132700.21</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D41" s="18" t="n">
         <v>18927937</v>
@@ -5995,10 +5962,10 @@
         <v>77012132700.31</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D42" s="18" t="n">
         <v>18927938</v>
@@ -6011,10 +5978,10 @@
         <v>77012132700.41</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D43" s="18" t="n">
         <v>18927939</v>
@@ -6027,10 +5994,10 @@
         <v>77012132700.51</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D44" s="18" t="n">
         <v>18927940</v>
@@ -6043,10 +6010,10 @@
         <v>77012132700.61</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D45" s="18" t="n">
         <v>18927941</v>
@@ -6059,10 +6026,10 @@
         <v>77012132700.71</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D46" s="18" t="n">
         <v>18927942</v>
@@ -6075,10 +6042,10 @@
         <v>77012132700.81</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D47" s="18" t="n">
         <v>18927943</v>
@@ -6091,10 +6058,10 @@
         <v>77012132700.91</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D48" s="18" t="n">
         <v>18927944</v>
@@ -6107,13 +6074,13 @@
         <v>77012132900.32</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="19" t="n">
@@ -6125,13 +6092,13 @@
         <v>77012132900.22</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="E50" s="19"/>
       <c r="F50" s="19" t="n">
@@ -6143,13 +6110,13 @@
         <v>77012132900.12</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="E51" s="19"/>
       <c r="F51" s="19" t="n">
@@ -6161,10 +6128,10 @@
         <v>77012132701.01</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D52" s="18" t="n">
         <v>18927945</v>
@@ -6177,10 +6144,10 @@
         <v>77012132701.11</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D53" s="18" t="n">
         <v>18927946</v>
@@ -6193,10 +6160,10 @@
         <v>77012132701.21</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D54" s="18" t="n">
         <v>18927947</v>
@@ -6209,10 +6176,10 @@
         <v>77012132701.31</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D55" s="18" t="n">
         <v>18927948</v>
@@ -6225,10 +6192,10 @@
         <v>77012132701.41</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D56" s="18" t="n">
         <v>18927949</v>
@@ -6241,10 +6208,10 @@
         <v>77012132701.51</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D57" s="18" t="n">
         <v>18927950</v>
@@ -6257,10 +6224,10 @@
         <v>77012132701.61</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D58" s="18" t="n">
         <v>18927951</v>
@@ -6273,10 +6240,10 @@
         <v>77012132701.71</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D59" s="18" t="n">
         <v>18927952</v>
@@ -6289,10 +6256,10 @@
         <v>77012132701.81</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D60" s="18" t="n">
         <v>18927953</v>
@@ -6305,10 +6272,10 @@
         <v>77012132701.91</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D61" s="18" t="n">
         <v>18927954</v>
@@ -6321,10 +6288,10 @@
         <v>77012132702.01</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D62" s="18" t="n">
         <v>18927955</v>
@@ -6337,10 +6304,10 @@
         <v>77012132702.11</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D63" s="18" t="n">
         <v>18927956</v>
@@ -6353,10 +6320,10 @@
         <v>77012132702.21</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D64" s="18" t="n">
         <v>18927957</v>
@@ -6369,10 +6336,10 @@
         <v>77012132702.31</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D65" s="18" t="n">
         <v>18927958</v>
@@ -6385,10 +6352,10 @@
         <v>77012132702.41</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D66" s="18" t="n">
         <v>18927959</v>
@@ -6401,10 +6368,10 @@
         <v>77012132702.51</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D67" s="18" t="n">
         <v>18927960</v>
@@ -6417,10 +6384,10 @@
         <v>77012132702.61</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D68" s="18" t="n">
         <v>18927961</v>
@@ -6433,10 +6400,10 @@
         <v>77012132702.71</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D69" s="18" t="n">
         <v>18927962</v>
@@ -6449,10 +6416,10 @@
         <v>77012132702.81</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D70" s="18" t="n">
         <v>18927963</v>
@@ -6465,10 +6432,10 @@
         <v>77012132702.91</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D71" s="18" t="n">
         <v>18927964</v>
@@ -6481,10 +6448,10 @@
         <v>77012132703.01</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D72" s="18" t="n">
         <v>18927965</v>
@@ -6497,10 +6464,10 @@
         <v>77012132703.11</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D73" s="18" t="n">
         <v>18927966</v>
@@ -6513,10 +6480,10 @@
         <v>77012132703.21</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D74" s="18" t="n">
         <v>18927967</v>
@@ -6529,10 +6496,10 @@
         <v>77012132703.31</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D75" s="18" t="n">
         <v>18927968</v>
@@ -6545,10 +6512,10 @@
         <v>77012132703.41</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D76" s="18" t="n">
         <v>18927969</v>
@@ -6561,10 +6528,10 @@
         <v>77012132703.51</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D77" s="18" t="n">
         <v>18927970</v>
@@ -6577,10 +6544,10 @@
         <v>77012132703.61</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D78" s="18" t="n">
         <v>18927971</v>
@@ -6593,10 +6560,10 @@
         <v>77012132703.71</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D79" s="18" t="n">
         <v>18927972</v>
@@ -6609,10 +6576,10 @@
         <v>77012132703.81</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D80" s="18" t="n">
         <v>18927973</v>
@@ -6625,10 +6592,10 @@
         <v>77012132703.91</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D81" s="18" t="n">
         <v>18927974</v>
@@ -6641,10 +6608,10 @@
         <v>77012132800.13</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C82" s="27" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D82" s="21" t="n">
         <v>18927975</v>
@@ -6657,10 +6624,10 @@
         <v>77012132800.23</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D83" s="21" t="n">
         <v>18927976</v>
@@ -6673,10 +6640,10 @@
         <v>77012132800.33</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C84" s="27" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D84" s="21" t="n">
         <v>18927977</v>
@@ -6689,10 +6656,10 @@
         <v>77012132800.43</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D85" s="21" t="n">
         <v>18927978</v>
@@ -6705,10 +6672,10 @@
         <v>77012132800.53</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D86" s="21" t="n">
         <v>18927979</v>
@@ -6721,10 +6688,10 @@
         <v>77012132800.63</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D87" s="21" t="n">
         <v>18927980</v>
@@ -6737,10 +6704,10 @@
         <v>77012132800.73</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D88" s="21" t="n">
         <v>18927981</v>
@@ -6753,10 +6720,10 @@
         <v>77012132800.83</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D89" s="21" t="n">
         <v>18927982</v>
@@ -6769,10 +6736,10 @@
         <v>77012132800.93</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D90" s="21" t="n">
         <v>18927983</v>
@@ -6785,10 +6752,10 @@
         <v>77012132801.03</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D91" s="21" t="n">
         <v>18927984</v>
@@ -6801,10 +6768,10 @@
         <v>77012132801.13</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="C92" s="27" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D92" s="21" t="n">
         <v>18927985</v>
@@ -6817,10 +6784,10 @@
         <v>77012132704.01</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D93" s="21" t="n">
         <v>18927986</v>
@@ -6833,10 +6800,10 @@
         <v>77012132704.11</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D94" s="21" t="n">
         <v>18927987</v>
@@ -6849,10 +6816,10 @@
         <v>77012132704.21</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D95" s="21" t="n">
         <v>18927988</v>
@@ -6865,10 +6832,10 @@
         <v>77012132704.31</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D96" s="21" t="n">
         <v>18927989</v>
@@ -6881,10 +6848,10 @@
         <v>77012132704.41</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D97" s="21" t="n">
         <v>18927991</v>
@@ -6897,10 +6864,10 @@
         <v>77012132704.51</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D98" s="21" t="n">
         <v>18927990</v>
@@ -6913,10 +6880,10 @@
         <v>77012132704.61</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D99" s="21" t="n">
         <v>18927992</v>
@@ -6929,10 +6896,10 @@
         <v>77012132704.71</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D100" s="21" t="n">
         <v>18927993</v>
@@ -6945,10 +6912,10 @@
         <v>77012132704.81</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D101" s="21" t="n">
         <v>18927994</v>
@@ -6961,10 +6928,10 @@
         <v>77012132704.91</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D102" s="21" t="n">
         <v>18927995</v>
@@ -6977,10 +6944,10 @@
         <v>77012132705.01</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D103" s="21" t="n">
         <v>18927996</v>
@@ -6993,10 +6960,10 @@
         <v>77012132705.11</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D104" s="21" t="n">
         <v>18927997</v>
@@ -7009,10 +6976,10 @@
         <v>77012132705.21</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D105" s="21" t="n">
         <v>18927998</v>
@@ -7025,10 +6992,10 @@
         <v>77012132705.31</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D106" s="21" t="n">
         <v>18927999</v>
@@ -7041,10 +7008,10 @@
         <v>77012132705.41</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D107" s="21" t="n">
         <v>18928000</v>
@@ -7057,10 +7024,10 @@
         <v>77012132705.51</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D108" s="21" t="n">
         <v>18928001</v>
@@ -7073,10 +7040,10 @@
         <v>77012132705.61</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D109" s="21" t="n">
         <v>18928002</v>
@@ -7089,10 +7056,10 @@
         <v>77012132705.71</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D110" s="21" t="n">
         <v>18928003</v>
@@ -7105,10 +7072,10 @@
         <v>77012132705.81</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D111" s="21" t="n">
         <v>18928004</v>
@@ -7121,10 +7088,10 @@
         <v>77012132705.91</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D112" s="21" t="n">
         <v>18928005</v>
@@ -7137,13 +7104,13 @@
         <v>77012132900.13</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D113" s="23" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E113" s="19"/>
       <c r="F113" s="19"/>
@@ -7153,13 +7120,13 @@
         <v>77012132900.23</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C114" s="23" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E114" s="19"/>
       <c r="F114" s="19"/>
@@ -7169,13 +7136,13 @@
         <v>77012132900.33</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E115" s="19"/>
       <c r="F115" s="19"/>
@@ -7185,13 +7152,13 @@
         <v>77012132900.43</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D116" s="23" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E116" s="19"/>
       <c r="F116" s="19"/>
@@ -7201,13 +7168,13 @@
         <v>77012132900.53</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D117" s="23" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E117" s="19"/>
       <c r="F117" s="19"/>
@@ -7217,13 +7184,13 @@
         <v>77012132900.63</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E118" s="19"/>
       <c r="F118" s="19"/>
@@ -7233,13 +7200,13 @@
         <v>77012132900.73</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D119" s="23" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E119" s="19"/>
       <c r="F119" s="19"/>
@@ -7249,13 +7216,13 @@
         <v>77012132900.83</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D120" s="23" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E120" s="19"/>
       <c r="F120" s="19"/>
@@ -7265,13 +7232,13 @@
         <v>77012132900.93</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D121" s="23" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E121" s="19"/>
       <c r="F121" s="19"/>
@@ -7281,13 +7248,13 @@
         <v>77012132901.03</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C122" s="23" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D122" s="23" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E122" s="19"/>
       <c r="F122" s="19"/>
@@ -7297,13 +7264,13 @@
         <v>77012132901.13</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C123" s="23" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D123" s="23" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E123" s="19"/>
       <c r="F123" s="19"/>
@@ -7313,13 +7280,13 @@
         <v>77012132901.23</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D124" s="23" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E124" s="19"/>
       <c r="F124" s="19"/>
@@ -7329,13 +7296,13 @@
         <v>77012132901.33</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D125" s="23" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E125" s="19"/>
       <c r="F125" s="19"/>
@@ -7345,13 +7312,13 @@
         <v>77012132901.43</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D126" s="23" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E126" s="19"/>
       <c r="F126" s="19"/>
@@ -7361,13 +7328,13 @@
         <v>77012132901.53</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D127" s="23" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E127" s="19"/>
       <c r="F127" s="19"/>
@@ -7377,13 +7344,13 @@
         <v>77012132901.63</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D128" s="23" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E128" s="19"/>
       <c r="F128" s="19"/>
@@ -7393,13 +7360,13 @@
         <v>77012132901.73</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E129" s="19"/>
       <c r="F129" s="19"/>
@@ -7409,13 +7376,13 @@
         <v>77001142900.13</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D130" s="23" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E130" s="19"/>
       <c r="F130" s="19"/>
@@ -7425,13 +7392,13 @@
         <v>77001142900.23</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D131" s="23" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E131" s="19"/>
       <c r="F131" s="19"/>
@@ -7441,13 +7408,13 @@
         <v>77001142900.33</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D132" s="23" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E132" s="19"/>
       <c r="F132" s="19"/>
@@ -7540,7 +7507,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
